--- a/docs/data/scores/2025_wk02_scores.xlsx
+++ b/docs/data/scores/2025_wk02_scores.xlsx
@@ -181,12 +181,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -213,7 +217,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -462,10 +466,10 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>27.0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>18.0</v>
       </c>
     </row>
@@ -479,10 +483,10 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>52.0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>21.0</v>
       </c>
     </row>
@@ -496,10 +500,10 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>31.0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>27.0</v>
       </c>
     </row>
@@ -513,10 +517,10 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>40.0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>37.0</v>
       </c>
     </row>
@@ -530,10 +534,10 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>27.0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>33.0</v>
       </c>
     </row>
@@ -547,10 +551,10 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>41.0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>17.0</v>
       </c>
     </row>
@@ -564,10 +568,10 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>10.0</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>30.0</v>
       </c>
     </row>
@@ -581,10 +585,10 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>19.0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>33.0</v>
       </c>
     </row>
@@ -598,10 +602,10 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>21.0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>26.0</v>
       </c>
     </row>
@@ -615,10 +619,10 @@
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>17.0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>31.0</v>
       </c>
     </row>
@@ -632,10 +636,10 @@
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>27.0</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>22.0</v>
       </c>
     </row>
@@ -649,10 +653,10 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>29.0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>28.0</v>
       </c>
     </row>
@@ -687,6 +691,9 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="D16" s="2">
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">

--- a/docs/data/scores/2025_wk02_scores.xlsx
+++ b/docs/data/scores/2025_wk02_scores.xlsx
@@ -670,6 +670,12 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D14" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -681,6 +687,12 @@
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D15" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -695,6 +707,9 @@
       <c r="D16" s="2">
         <v>19.0</v>
       </c>
+      <c r="E16" s="2">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -705,6 +720,12 @@
       </c>
       <c r="C17" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
